--- a/Tools/ExportDataTable/Excel/SkillMap.xlsx
+++ b/Tools/ExportDataTable/Excel/SkillMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="11220"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>skillID</t>
   </si>
@@ -43,19 +43,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>Hero101_attack</t>
+    <t>Hero101_LinearProjectile.json</t>
   </si>
   <si>
     <t>icon_attack_101</t>
   </si>
   <si>
-    <t>icon_skill1_101</t>
-  </si>
-  <si>
-    <t>icon_skill2_101</t>
-  </si>
-  <si>
-    <t>icon_skill3_101</t>
+    <t>Hero102_attack</t>
+  </si>
+  <si>
+    <t>icon_skill1_102</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1092,101 +1089,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
